--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822408.7709286484</v>
+        <v>746536.1065237212</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.3829109172</v>
+        <v>431491.3829109174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12084479.7604139</v>
+        <v>12084479.76041391</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7535139.24252795</v>
+        <v>7535139.242527948</v>
       </c>
     </row>
     <row r="11">
@@ -661,14 +661,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.09880012417923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.0109732855271</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.862430619821959</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,17 +1132,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.3111039422953</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>171.5241101720898</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.4888478687503</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>117.8987407938298</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>51.80105098334504</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>163.5434392080944</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25.19105796849892</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>123.5289014911852</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>347.1330306965958</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.50005758516286</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,22 +1688,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>109.0106375993634</v>
+        <v>55.39315402998746</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.5434392080944</v>
@@ -1742,7 +1742,7 @@
         <v>198.3983972633722</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>123.5289014911853</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>123.5289014911852</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.4837081715351</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.68406705131854</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>246.2752904832116</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>78.8438098742385</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.874536583581227</v>
       </c>
       <c r="S18" t="n">
         <v>163.5434392080944</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>123.5289014911852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>184.342244438739</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>178.9002608012674</v>
+        <v>170.3254135708186</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>168.5764879860458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>9.251933869678378</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8.2235464725869</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>90.31686947730195</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S22" t="n">
-        <v>157.9142565039482</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>291.6082152899771</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.65893690886244</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I25" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>307.0588452518149</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>92.39479380343583</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>248.2241436653409</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>295.9707132341636</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>88.42622435099796</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.8987684002238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
         <v>225.8879277888686</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>70.18226380646142</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>355.9558326206343</v>
       </c>
       <c r="D35" t="n">
-        <v>206.8577434995327</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>343.0471961917882</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>98.04448829052026</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>72.497054795987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>177.5391940856295</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>276.2983106514745</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>132.6183774399845</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="D46" t="n">
-        <v>123.4514883688805</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.8574406365461</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>133.4044113554191</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>476.0727776566142</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>345.004439675971</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>345.004439675971</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>345.004439675971</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="7">
@@ -4752,10 +4752,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4786,7 +4786,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4886,43 +4886,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>914.2479596093278</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="S9" t="n">
-        <v>914.2479596093278</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="T9" t="n">
-        <v>914.2479596093278</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X9" t="n">
         <v>227.7955745279523</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1203.508252479824</v>
+        <v>1084.432517994655</v>
       </c>
       <c r="C11" t="n">
-        <v>834.5457355394124</v>
+        <v>1084.432517994655</v>
       </c>
       <c r="D11" t="n">
-        <v>834.5457355394124</v>
+        <v>726.166819387905</v>
       </c>
       <c r="E11" t="n">
-        <v>448.7574829411681</v>
+        <v>726.166819387905</v>
       </c>
       <c r="F11" t="n">
-        <v>37.7715781515605</v>
+        <v>552.9101424464001</v>
       </c>
       <c r="G11" t="n">
-        <v>37.7715781515605</v>
+        <v>552.9101424464001</v>
       </c>
       <c r="H11" t="n">
-        <v>37.7715781515605</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J11" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434986</v>
       </c>
       <c r="K11" t="n">
         <v>300.9175062625695</v>
@@ -5059,34 +5059,34 @@
         <v>1604.648480067583</v>
       </c>
       <c r="P11" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q11" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S11" t="n">
-        <v>1888.578907578025</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="T11" t="n">
-        <v>1888.578907578025</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.578907578025</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="V11" t="n">
-        <v>1576.974010740904</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="W11" t="n">
-        <v>1576.974010740904</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="X11" t="n">
-        <v>1203.508252479824</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="Y11" t="n">
-        <v>1203.508252479824</v>
+        <v>1084.432517994655</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>197.009033157016</v>
+        <v>597.6368324054383</v>
       </c>
       <c r="C12" t="n">
-        <v>197.009033157016</v>
+        <v>423.1838031243113</v>
       </c>
       <c r="D12" t="n">
-        <v>197.009033157016</v>
+        <v>274.2493934630601</v>
       </c>
       <c r="E12" t="n">
-        <v>37.7715781515605</v>
+        <v>274.2493934630601</v>
       </c>
       <c r="F12" t="n">
-        <v>37.7715781515605</v>
+        <v>274.2493934630601</v>
       </c>
       <c r="G12" t="n">
-        <v>37.7715781515605</v>
+        <v>221.9250995404893</v>
       </c>
       <c r="H12" t="n">
-        <v>37.7715781515605</v>
+        <v>112.8309903954056</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02054839819857</v>
+        <v>78.02054839819859</v>
       </c>
       <c r="K12" t="n">
         <v>273.433292426173</v>
@@ -5129,7 +5129,7 @@
         <v>597.5942384890418</v>
       </c>
       <c r="M12" t="n">
-        <v>688.9893051104896</v>
+        <v>1027.853994500663</v>
       </c>
       <c r="N12" t="n">
         <v>1146.343769973334</v>
@@ -5141,31 +5141,31 @@
         <v>1763.805418834996</v>
       </c>
       <c r="Q12" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R12" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S12" t="n">
-        <v>1649.696852561131</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T12" t="n">
-        <v>1449.294431082978</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U12" t="n">
-        <v>1221.099934252932</v>
+        <v>1294.786596130336</v>
       </c>
       <c r="V12" t="n">
-        <v>985.947826021189</v>
+        <v>1059.634487898594</v>
       </c>
       <c r="W12" t="n">
-        <v>731.7104692929875</v>
+        <v>805.3971311703922</v>
       </c>
       <c r="X12" t="n">
-        <v>523.8589690874546</v>
+        <v>805.3971311703922</v>
       </c>
       <c r="Y12" t="n">
-        <v>316.0986703225007</v>
+        <v>597.6368324054383</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.7715781515605</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="C13" t="n">
-        <v>37.7715781515605</v>
+        <v>63.21709125105437</v>
       </c>
       <c r="D13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="E13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J13" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K13" t="n">
-        <v>57.98179126766712</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L13" t="n">
         <v>139.3703405264044</v>
@@ -5226,25 +5226,25 @@
         <v>451.9654163614355</v>
       </c>
       <c r="S13" t="n">
-        <v>451.9654163614355</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="T13" t="n">
-        <v>451.9654163614355</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="U13" t="n">
-        <v>327.1887481885211</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="V13" t="n">
-        <v>327.1887481885211</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="W13" t="n">
-        <v>37.7715781515605</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="X13" t="n">
-        <v>37.7715781515605</v>
+        <v>232.1532741789613</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.7715781515605</v>
+        <v>232.1532741789613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.037276758311</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="C14" t="n">
-        <v>396.037276758311</v>
+        <v>1519.616390637614</v>
       </c>
       <c r="D14" t="n">
-        <v>37.7715781515605</v>
+        <v>1519.616390637614</v>
       </c>
       <c r="E14" t="n">
-        <v>37.7715781515605</v>
+        <v>1133.82813803937</v>
       </c>
       <c r="F14" t="n">
-        <v>37.7715781515605</v>
+        <v>722.8422332497621</v>
       </c>
       <c r="G14" t="n">
-        <v>37.7715781515605</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H14" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I14" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559815</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859929</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N14" t="n">
         <v>1318.836271911618</v>
@@ -5296,34 +5296,34 @@
         <v>1604.648480067583</v>
       </c>
       <c r="P14" t="n">
-        <v>1810.908204322028</v>
+        <v>1810.908204322029</v>
       </c>
       <c r="Q14" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R14" t="n">
-        <v>1827.467738300083</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S14" t="n">
-        <v>1635.18850757386</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="T14" t="n">
-        <v>1413.460680692524</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="U14" t="n">
-        <v>1159.642366995203</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="V14" t="n">
-        <v>1159.642366995203</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="W14" t="n">
-        <v>1159.642366995203</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="X14" t="n">
-        <v>786.1766087341227</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.037276758311</v>
+        <v>1888.578907578026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.8833333024327</v>
+        <v>657.5247907748374</v>
       </c>
       <c r="C15" t="n">
-        <v>37.7715781515605</v>
+        <v>601.5721099364662</v>
       </c>
       <c r="D15" t="n">
-        <v>37.7715781515605</v>
+        <v>452.6377002752149</v>
       </c>
       <c r="E15" t="n">
-        <v>37.7715781515605</v>
+        <v>293.4002452697594</v>
       </c>
       <c r="F15" t="n">
-        <v>37.7715781515605</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="G15" t="n">
-        <v>37.7715781515605</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="H15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J15" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K15" t="n">
-        <v>59.34209177902915</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="L15" t="n">
-        <v>383.503037841898</v>
+        <v>361.9325242144293</v>
       </c>
       <c r="M15" t="n">
-        <v>813.7627938535188</v>
+        <v>792.1922802260502</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.117258716363</v>
+        <v>1249.546745088895</v>
       </c>
       <c r="O15" t="n">
-        <v>1623.091564367482</v>
+        <v>1601.521050740014</v>
       </c>
       <c r="P15" t="n">
-        <v>1888.578907578025</v>
+        <v>1867.008393950557</v>
       </c>
       <c r="Q15" t="n">
-        <v>1888.578907578025</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="R15" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.696852561131</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T15" t="n">
-        <v>1449.294431082978</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U15" t="n">
-        <v>1221.099934252932</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="V15" t="n">
-        <v>985.947826021189</v>
+        <v>1287.82898472864</v>
       </c>
       <c r="W15" t="n">
-        <v>731.7104692929875</v>
+        <v>1033.591628000438</v>
       </c>
       <c r="X15" t="n">
-        <v>523.8589690874546</v>
+        <v>825.7401277949054</v>
       </c>
       <c r="Y15" t="n">
-        <v>316.0986703225007</v>
+        <v>825.7401277949054</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="C16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="D16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="F16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="G16" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H16" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J16" t="n">
-        <v>37.7715781515605</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K16" t="n">
-        <v>57.98179126766712</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L16" t="n">
         <v>139.3703405264044</v>
@@ -5469,19 +5469,19 @@
         <v>451.9654163614355</v>
       </c>
       <c r="U16" t="n">
-        <v>327.1887481885211</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V16" t="n">
-        <v>327.1887481885211</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="W16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="X16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.7715781515605</v>
+        <v>162.5482463244749</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1244.621261904892</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="C17" t="n">
-        <v>1244.621261904892</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="D17" t="n">
-        <v>886.3555632981418</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="E17" t="n">
-        <v>500.5673106998975</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F17" t="n">
-        <v>500.5673106998975</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G17" t="n">
-        <v>81.89689840541763</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H17" t="n">
-        <v>81.89689840541763</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I17" t="n">
         <v>37.77157815156051</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252435003</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625698</v>
       </c>
       <c r="L17" t="n">
         <v>608.9498412559817</v>
@@ -5548,19 +5548,19 @@
         <v>1888.578907578026</v>
       </c>
       <c r="U17" t="n">
-        <v>1634.760593880704</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="V17" t="n">
-        <v>1634.760593880704</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="W17" t="n">
-        <v>1634.760593880704</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="X17" t="n">
-        <v>1634.760593880704</v>
+        <v>1639.815987898014</v>
       </c>
       <c r="Y17" t="n">
-        <v>1244.621261904892</v>
+        <v>1639.815987898014</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>597.6368324054383</v>
+        <v>467.8532745508863</v>
       </c>
       <c r="C18" t="n">
-        <v>423.1838031243113</v>
+        <v>293.4002452697594</v>
       </c>
       <c r="D18" t="n">
-        <v>423.1838031243113</v>
+        <v>293.4002452697594</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9463481188558</v>
+        <v>293.4002452697594</v>
       </c>
       <c r="F18" t="n">
-        <v>117.4117901457408</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="G18" t="n">
-        <v>37.77157815156051</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="H18" t="n">
         <v>37.77157815156051</v>
@@ -5597,49 +5597,49 @@
         <v>37.77157815156051</v>
       </c>
       <c r="K18" t="n">
-        <v>233.1843221795349</v>
+        <v>59.34209177902937</v>
       </c>
       <c r="L18" t="n">
-        <v>557.3452682424038</v>
+        <v>383.5030378418982</v>
       </c>
       <c r="M18" t="n">
-        <v>987.6050242540246</v>
+        <v>813.762793853519</v>
       </c>
       <c r="N18" t="n">
-        <v>1444.959489116869</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O18" t="n">
-        <v>1796.933794767988</v>
+        <v>1623.091564367483</v>
       </c>
       <c r="P18" t="n">
-        <v>1796.933794767988</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Q18" t="n">
         <v>1888.578907578026</v>
       </c>
       <c r="R18" t="n">
-        <v>1888.578907578026</v>
+        <v>1880.624830220873</v>
       </c>
       <c r="S18" t="n">
-        <v>1723.383514438536</v>
+        <v>1715.429437081383</v>
       </c>
       <c r="T18" t="n">
-        <v>1522.981092960383</v>
+        <v>1515.02701560323</v>
       </c>
       <c r="U18" t="n">
-        <v>1294.786596130336</v>
+        <v>1286.832518773184</v>
       </c>
       <c r="V18" t="n">
-        <v>1059.634487898594</v>
+        <v>1051.680410541441</v>
       </c>
       <c r="W18" t="n">
-        <v>805.3971311703922</v>
+        <v>1051.680410541441</v>
       </c>
       <c r="X18" t="n">
-        <v>805.3971311703922</v>
+        <v>843.8289103359082</v>
       </c>
       <c r="Y18" t="n">
-        <v>597.6368324054383</v>
+        <v>636.0686115709543</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="C19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="D19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="E19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="F19" t="n">
         <v>37.77157815156051</v>
@@ -5703,22 +5703,22 @@
         <v>451.9654163614355</v>
       </c>
       <c r="T19" t="n">
-        <v>265.7611290495778</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="U19" t="n">
-        <v>265.7611290495778</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V19" t="n">
-        <v>265.7611290495778</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="W19" t="n">
-        <v>265.7611290495778</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="X19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.77157815156051</v>
+        <v>162.5482463244749</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>973.2296818329107</v>
+        <v>1322.833918590723</v>
       </c>
       <c r="C20" t="n">
-        <v>604.2671648924991</v>
+        <v>953.8714016503113</v>
       </c>
       <c r="D20" t="n">
-        <v>604.2671648924991</v>
+        <v>595.6057030435609</v>
       </c>
       <c r="E20" t="n">
-        <v>218.4789122942549</v>
+        <v>209.8174504453166</v>
       </c>
       <c r="F20" t="n">
-        <v>218.4789122942549</v>
+        <v>209.8174504453166</v>
       </c>
       <c r="G20" t="n">
-        <v>218.4789122942549</v>
+        <v>209.8174504453166</v>
       </c>
       <c r="H20" t="n">
-        <v>218.4789122942549</v>
+        <v>209.8174504453166</v>
       </c>
       <c r="I20" t="n">
         <v>37.77157815156051</v>
       </c>
       <c r="J20" t="n">
-        <v>94.76073252435003</v>
+        <v>94.76073252434986</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
         <v>608.9498412559817</v>
@@ -5782,22 +5782,22 @@
         <v>1696.299676851803</v>
       </c>
       <c r="T20" t="n">
-        <v>1474.571849970467</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="U20" t="n">
-        <v>1474.571849970467</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="V20" t="n">
-        <v>1143.508962626896</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="W20" t="n">
-        <v>1143.508962626896</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="X20" t="n">
-        <v>1143.508962626896</v>
+        <v>1322.833918590723</v>
       </c>
       <c r="Y20" t="n">
-        <v>973.2296818329107</v>
+        <v>1322.833918590723</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>784.3317518161657</v>
+        <v>221.5699951798374</v>
       </c>
       <c r="C21" t="n">
-        <v>609.8787225350387</v>
+        <v>47.11696589871039</v>
       </c>
       <c r="D21" t="n">
-        <v>460.9443128737875</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="E21" t="n">
-        <v>301.706857868332</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F21" t="n">
-        <v>155.1722998952169</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G21" t="n">
-        <v>146.8656872966443</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H21" t="n">
         <v>37.77157815156051</v>
@@ -5831,22 +5831,22 @@
         <v>37.77157815156051</v>
       </c>
       <c r="J21" t="n">
-        <v>78.02054839819857</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K21" t="n">
-        <v>273.433292426173</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L21" t="n">
-        <v>597.5942384890418</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M21" t="n">
-        <v>1027.853994500663</v>
+        <v>987.6050242540247</v>
       </c>
       <c r="N21" t="n">
-        <v>1485.208459363507</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.182765014626</v>
+        <v>1623.091564367483</v>
       </c>
       <c r="P21" t="n">
         <v>1888.578907578026</v>
@@ -5855,28 +5855,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S21" t="n">
-        <v>1649.696852561132</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T21" t="n">
-        <v>1649.696852561132</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U21" t="n">
-        <v>1649.696852561132</v>
+        <v>1294.786596130336</v>
       </c>
       <c r="V21" t="n">
-        <v>1414.544744329389</v>
+        <v>1059.634487898594</v>
       </c>
       <c r="W21" t="n">
-        <v>1160.307387601188</v>
+        <v>805.3971311703922</v>
       </c>
       <c r="X21" t="n">
-        <v>1160.307387601188</v>
+        <v>597.5456309648594</v>
       </c>
       <c r="Y21" t="n">
-        <v>952.5470888362338</v>
+        <v>389.7853321999054</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="C22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="D22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="E22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="F22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="G22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="H22" t="n">
-        <v>37.77157815156051</v>
+        <v>129.0007392397443</v>
       </c>
       <c r="I22" t="n">
         <v>37.77157815156051</v>
@@ -5934,28 +5934,28 @@
         <v>451.9654163614355</v>
       </c>
       <c r="R22" t="n">
-        <v>451.9654163614355</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="S22" t="n">
-        <v>292.4560663574474</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="T22" t="n">
-        <v>292.4560663574474</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="U22" t="n">
-        <v>292.4560663574474</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="V22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="W22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="X22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.77157815156051</v>
+        <v>289.5671593724843</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1536.177557778964</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C23" t="n">
-        <v>1536.177557778964</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.911859172214</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1236065739693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2686.382488079978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2686.382488079978</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2686.382488079978</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2686.382488079978</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2686.382488079978</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2686.382488079978</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X23" t="n">
-        <v>2312.916729818898</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1922.777397843086</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6071,7 +6071,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
         <v>670.8219208598708</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.4036268380754</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C25" t="n">
-        <v>211.4036268380754</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D25" t="n">
-        <v>211.4036268380754</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E25" t="n">
-        <v>211.4036268380754</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F25" t="n">
-        <v>64.513679340165</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G25" t="n">
-        <v>64.513679340165</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H25" t="n">
-        <v>64.513679340165</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1957.780595683986</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.818078743575</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D26" t="n">
-        <v>1230.552380136824</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E26" t="n">
-        <v>844.7641275385799</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>844.7641275385799</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748108</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y26" t="n">
-        <v>2344.380435748108</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V28" t="n">
-        <v>184.2708856551153</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W28" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X28" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6460,16 +6460,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2678.586644293418</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>2678.586644293418</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>857.6950425204218</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C32" t="n">
-        <v>857.6950425204218</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X32" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y32" t="n">
-        <v>1244.294882584544</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6809,19 +6809,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>657.237808644352</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6879,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1958.288858935031</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C35" t="n">
-        <v>1958.288858935031</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X35" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y35" t="n">
-        <v>1958.288858935031</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,43 +7016,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1924.457674141023</v>
+        <v>1082.67330119093</v>
       </c>
       <c r="C38" t="n">
-        <v>1555.495157200611</v>
+        <v>1082.67330119093</v>
       </c>
       <c r="D38" t="n">
-        <v>1197.229458593861</v>
+        <v>724.4076025841791</v>
       </c>
       <c r="E38" t="n">
-        <v>811.4412059956167</v>
+        <v>724.4076025841791</v>
       </c>
       <c r="F38" t="n">
-        <v>400.4553012060091</v>
+        <v>724.4076025841791</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>306.443794482366</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>2311.057514205145</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X38" t="n">
-        <v>2311.057514205145</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y38" t="n">
-        <v>2311.057514205145</v>
+        <v>1469.273141255051</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C40" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D40" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.38774159731</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
         <v>882.8926947117852</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.527073573122</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.38774159731</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
@@ -7484,7 +7484,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7502,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7599,16 +7599,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>984.6750962183016</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C44" t="n">
-        <v>984.6750962183016</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D44" t="n">
-        <v>984.6750962183016</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>598.8868436200573</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>187.9009388304498</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>2134.880026519315</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.880026519315</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X44" t="n">
-        <v>1761.414268258235</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1371.274936282423</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2442.464602812336</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C46" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2169.853036130063</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>2442.464602812336</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W46" t="n">
-        <v>2442.464602812336</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X46" t="n">
-        <v>2442.464602812336</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y46" t="n">
-        <v>2442.464602812336</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>123.4174987094211</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>137.0548093029747</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.43550983875423</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K15" t="n">
-        <v>88.86702448681521</v>
+        <v>67.07862688331151</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.04346072268812</v>
+        <v>105.8318583261918</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>85.43550983875423</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>88.86702448681544</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>50.2937350939341</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.614281742928</v>
+        <v>84.04346072268812</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>303.7441618177903</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>102.2090306125195</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.04346072268812</v>
+        <v>84.04346072268811</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>24.10851563277508</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.5838956531251</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.52221036434025</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>103.3730136166745</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23077,10 +23077,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.84673021034784</v>
+        <v>71.01512708784534</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>235.3519355696216</v>
       </c>
       <c r="G11" t="n">
         <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623699</v>
+        <v>98.42076593623698</v>
       </c>
       <c r="S11" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>19.26341060138463</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.6344428560375</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>85.10424684758</v>
       </c>
       <c r="H12" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>123.4244150497134</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,19 +23466,19 @@
         <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
-        <v>217.6140207606494</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.3758391310088</v>
       </c>
       <c r="U13" t="n">
-        <v>162.7700884998086</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4837081715351</v>
+        <v>67.35067747493929</v>
       </c>
       <c r="H14" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>178.9002608012674</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.92070835107413</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>63.69786138895229</v>
+        <v>117.3153449583283</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140659</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.623590991012</v>
+        <v>44.09468949982669</v>
       </c>
       <c r="H16" t="n">
         <v>158.9607559314126</v>
@@ -23676,7 +23676,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>67.3848225381842</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939937</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R16" t="n">
         <v>160.7742744190617</v>
@@ -23709,7 +23709,7 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U16" t="n">
-        <v>162.7700884998086</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>331.0869178506238</v>
       </c>
       <c r="I17" t="n">
-        <v>135.2161937499488</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>123.4558101952575</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>58.06148795668653</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>74.30881812140659</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863036</v>
+        <v>65.07525867504913</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>21.89214653174604</v>
       </c>
       <c r="G19" t="n">
         <v>167.623590991012</v>
@@ -23943,7 +23943,7 @@
         <v>217.6140207606494</v>
       </c>
       <c r="T19" t="n">
-        <v>42.03359469226976</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
         <v>286.2989899909938</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.574847230448825</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623699</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>217.6614506700078</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>138.1931316949604</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>128.6817513583381</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140659</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24144,13 +24144,13 @@
         <v>167.623590991012</v>
       </c>
       <c r="H22" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>144.4021047498582</v>
+        <v>54.08523527255626</v>
       </c>
       <c r="J22" t="n">
-        <v>67.3848225381842</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939937</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R22" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.69976425670126</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T22" t="n">
         <v>226.3758391310088</v>
@@ -24186,7 +24186,7 @@
         <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>63.07482633070583</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.81946566594929</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I25" t="n">
-        <v>124.5006312477357</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>106.7253247689801</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3574646666991</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>38.22219630222452</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>133.7062264069209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>73.76038744430542</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.74592769735792</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>260.8147443664151</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.3391702558298</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>109.6497163754759</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>20.57645329849123</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>9.317059150373211</v>
       </c>
       <c r="D35" t="n">
-        <v>147.8252981211502</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>70.73697382900679</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>225.8782844738369</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>136.6435220329195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7758369750205</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>150.2130643845054</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>106.435531012006</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>281.1657925808105</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>72.6075513149875</v>
       </c>
       <c r="D46" t="n">
-        <v>25.16398464933189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457180.0292414518</v>
+        <v>457180.0292414515</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414518</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626860.9421569512</v>
+        <v>626860.9421569513</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626860.9421569512</v>
+        <v>626860.9421569513</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>626860.9421569512</v>
+        <v>626860.9421569513</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>626860.9421569513</v>
+        <v>626860.9421569512</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="E2" t="n">
-        <v>220688.4257425818</v>
+        <v>220688.4257425819</v>
       </c>
       <c r="F2" t="n">
         <v>220688.4257425818</v>
@@ -26331,31 +26331,31 @@
         <v>220688.4257425818</v>
       </c>
       <c r="H2" t="n">
-        <v>220688.4257425817</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>232690.608566589</v>
+        <v>232690.6085665891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>184739.8879912181</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555041</v>
+        <v>57598.62967555045</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4847.908174801421</v>
+        <v>-17065.9187948418</v>
       </c>
       <c r="C6" t="n">
-        <v>75921.52335674633</v>
+        <v>63703.51273670589</v>
       </c>
       <c r="D6" t="n">
-        <v>75921.52335674642</v>
+        <v>63703.5127367059</v>
       </c>
       <c r="E6" t="n">
-        <v>-79993.90085955986</v>
+        <v>-88904.76480392582</v>
       </c>
       <c r="F6" t="n">
-        <v>152696.7077070292</v>
+        <v>143785.8437626632</v>
       </c>
       <c r="G6" t="n">
-        <v>152696.7077070291</v>
+        <v>143785.8437626632</v>
       </c>
       <c r="H6" t="n">
-        <v>152696.7077070291</v>
+        <v>143785.8437626632</v>
       </c>
       <c r="I6" t="n">
-        <v>4778.866820075185</v>
+        <v>-1289.546925743845</v>
       </c>
       <c r="J6" t="n">
-        <v>126458.8122121872</v>
+        <v>120390.398466368</v>
       </c>
       <c r="K6" t="n">
-        <v>189518.7548112934</v>
+        <v>183450.3410654744</v>
       </c>
       <c r="L6" t="n">
-        <v>189518.7548112936</v>
+        <v>183450.3410654742</v>
       </c>
       <c r="M6" t="n">
-        <v>131920.1251357431</v>
+        <v>125851.711389924</v>
       </c>
       <c r="N6" t="n">
-        <v>189518.7548112933</v>
+        <v>183450.3410654742</v>
       </c>
       <c r="O6" t="n">
-        <v>189518.7548112934</v>
+        <v>183450.3410654742</v>
       </c>
       <c r="P6" t="n">
-        <v>189518.7548112933</v>
+        <v>183450.3410654743</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>203.7335492204968</v>
       </c>
       <c r="F3" t="n">
-        <v>203.7335492204968</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="G3" t="n">
         <v>203.7335492204968</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7335492204968</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>472.1447268945063</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="F4" t="n">
-        <v>472.1447268945063</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="G4" t="n">
         <v>472.1447268945064</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>202.1425458600492</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168473</v>
+        <v>231.1304380168474</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190293435999865</v>
+        <v>0.8190293435999866</v>
       </c>
       <c r="H11" t="n">
         <v>8.387884265143365</v>
@@ -31761,7 +31761,7 @@
         <v>31.57562876913851</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136942</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K11" t="n">
         <v>104.1836038659569</v>
@@ -31770,22 +31770,22 @@
         <v>129.248973140155</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N11" t="n">
         <v>146.1414533519047</v>
       </c>
       <c r="O11" t="n">
-        <v>137.9972303164823</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P11" t="n">
         <v>117.7774433963577</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4459550286831</v>
+        <v>88.44595502868312</v>
       </c>
       <c r="R11" t="n">
-        <v>51.4483520049127</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S11" t="n">
         <v>18.66363116728471</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855969</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863528</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I12" t="n">
         <v>15.08781473000849</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791247</v>
+        <v>41.40211682791248</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104746</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981788</v>
+        <v>95.14933352981789</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N12" t="n">
         <v>113.9735446719457</v>
@@ -31858,13 +31858,13 @@
         <v>104.2635268355122</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68067232039614</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333339</v>
+        <v>55.9383133633334</v>
       </c>
       <c r="R12" t="n">
-        <v>27.20803889401277</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S12" t="n">
         <v>8.139731895743429</v>
@@ -31913,7 +31913,7 @@
         <v>0.3673883674467975</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026983</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I13" t="n">
         <v>11.04837017740006</v>
@@ -31925,19 +31925,19 @@
         <v>42.68384850881883</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62063055659024</v>
+        <v>54.62063055659025</v>
       </c>
       <c r="M13" t="n">
         <v>57.58979654441026</v>
       </c>
       <c r="N13" t="n">
-        <v>56.2204399021086</v>
+        <v>56.22043990210861</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148008</v>
+        <v>51.92867579148009</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556538</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q13" t="n">
         <v>30.76376593229502</v>
@@ -31946,7 +31946,7 @@
         <v>16.51911695810782</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322822</v>
+        <v>6.402577276322823</v>
       </c>
       <c r="T13" t="n">
         <v>1.56975029727268</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190293435999865</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143365</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57562876913851</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136942</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K14" t="n">
         <v>104.1836038659569</v>
@@ -32007,31 +32007,31 @@
         <v>129.248973140155</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N14" t="n">
         <v>146.1414533519047</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164823</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P14" t="n">
         <v>117.7774433963577</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4459550286831</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R14" t="n">
-        <v>51.4483520049127</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S14" t="n">
-        <v>18.66363116728471</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585300951608943</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799891</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855969</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863528</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000849</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791247</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104746</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981788</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N15" t="n">
         <v>113.9735446719457</v>
@@ -32095,22 +32095,22 @@
         <v>104.2635268355122</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68067232039614</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333339</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R15" t="n">
-        <v>27.20803889401277</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743429</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T15" t="n">
         <v>1.766331431449401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0288302192293156</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,31 +32150,31 @@
         <v>0.3673883674467975</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026983</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I16" t="n">
         <v>11.04837017740006</v>
       </c>
       <c r="J16" t="n">
-        <v>25.97435757848858</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K16" t="n">
         <v>42.68384850881883</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659024</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441026</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N16" t="n">
-        <v>56.2204399021086</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148008</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556538</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q16" t="n">
         <v>30.76376593229502</v>
@@ -32183,7 +32183,7 @@
         <v>16.51911695810782</v>
       </c>
       <c r="S16" t="n">
-        <v>6.402577276322822</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T16" t="n">
         <v>1.56975029727268</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999865</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143365</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913851</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136942</v>
+        <v>69.51409175136943</v>
       </c>
       <c r="K20" t="n">
         <v>104.1836038659569</v>
@@ -32481,31 +32481,31 @@
         <v>129.248973140155</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N20" t="n">
         <v>146.1414533519047</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164823</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P20" t="n">
         <v>117.7774433963577</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.4459550286831</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R20" t="n">
-        <v>51.4483520049127</v>
+        <v>51.44835200491271</v>
       </c>
       <c r="S20" t="n">
-        <v>18.66363116728471</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608943</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799891</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855969</v>
+        <v>0.438219332285597</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863528</v>
+        <v>4.232276182863529</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000849</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791247</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104746</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981788</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251708</v>
       </c>
       <c r="N21" t="n">
         <v>113.9735446719457</v>
@@ -32569,22 +32569,22 @@
         <v>104.2635268355122</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039614</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333339</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R21" t="n">
-        <v>27.20803889401277</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743429</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T21" t="n">
         <v>1.766331431449401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0288302192293156</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,31 +32624,31 @@
         <v>0.3673883674467975</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026983</v>
+        <v>3.266416576026984</v>
       </c>
       <c r="I22" t="n">
         <v>11.04837017740006</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848858</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K22" t="n">
         <v>42.68384850881883</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659024</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441026</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N22" t="n">
-        <v>56.2204399021086</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148008</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556538</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q22" t="n">
         <v>30.76376593229502</v>
@@ -32657,7 +32657,7 @@
         <v>16.51911695810782</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322822</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T22" t="n">
         <v>1.56975029727268</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.5648023967569</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K11" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L11" t="n">
         <v>311.1437727206182</v>
@@ -35430,7 +35430,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.4552558141383</v>
+        <v>78.45525581413831</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>327.4352990534029</v>
       </c>
       <c r="M12" t="n">
-        <v>92.3182491125735</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N12" t="n">
-        <v>461.9742069321659</v>
+        <v>119.6866418915871</v>
       </c>
       <c r="O12" t="n">
         <v>355.5296016677972</v>
       </c>
       <c r="P12" t="n">
-        <v>268.169033546003</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q12" t="n">
         <v>126.033827013161</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.5648023967569</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K14" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L14" t="n">
         <v>311.1437727206182</v>
@@ -35667,7 +35667,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.4552558141383</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.78839760350368</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>327.4352990534029</v>
       </c>
       <c r="M15" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531524</v>
       </c>
       <c r="N15" t="n">
         <v>461.9742069321659</v>
       </c>
       <c r="O15" t="n">
-        <v>355.5296016677972</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P15" t="n">
-        <v>268.169033546003</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>21.78839760350374</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293597</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21065581690638</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M16" t="n">
         <v>97.17367350625085</v>
@@ -35822,7 +35822,7 @@
         <v>76.51380370551976</v>
       </c>
       <c r="P16" t="n">
-        <v>41.71251236045887</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>197.3866101292671</v>
+        <v>21.7883976035039</v>
       </c>
       <c r="L18" t="n">
         <v>327.4352990534029</v>
@@ -35980,10 +35980,10 @@
         <v>355.5296016677972</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.57082102023992</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.5648023967569</v>
+        <v>57.56480239675692</v>
       </c>
       <c r="K20" t="n">
-        <v>208.239165392141</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L20" t="n">
         <v>311.1437727206182</v>
@@ -36141,7 +36141,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.4552558141383</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.65552550165462</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>197.3866101292671</v>
@@ -36208,16 +36208,16 @@
         <v>327.4352990534029</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531524</v>
       </c>
       <c r="N21" t="n">
-        <v>461.9742069321659</v>
+        <v>286.3759944064026</v>
       </c>
       <c r="O21" t="n">
-        <v>355.5296016677972</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P21" t="n">
-        <v>51.91529551858536</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293597</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690638</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M22" t="n">
         <v>97.17367350625085</v>
@@ -36296,7 +36296,7 @@
         <v>76.51380370551976</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045887</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
